--- a/08 Project Management/Tidsregistrering/PM12 Tidsregistrering for Emil.xlsx
+++ b/08 Project Management/Tidsregistrering/PM12 Tidsregistrering for Emil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emiln\OneDrive\Dokumenter\HoeKulator\08 Project Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83DB17D-330E-4C69-9D8C-3ADEABD89A94}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0FD55A-FC78-4BA5-BCFD-5E6DAF841FF9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>Tidsregistrering af (Navn)</t>
   </si>
@@ -163,10 +163,13 @@
     <t>Review af AD1, DOM1, UC08</t>
   </si>
   <si>
-    <t>2 timer</t>
-  </si>
-  <si>
-    <t>Start på UI design prototype</t>
+    <t>Fortsættelse af UI prototype</t>
+  </si>
+  <si>
+    <t>Desktop UI design prototype</t>
+  </si>
+  <si>
+    <t>AndroidUI design prototype</t>
   </si>
 </sst>
 </file>
@@ -317,7 +320,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -358,7 +361,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -367,6 +369,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -748,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,22 +766,22 @@
     <col min="3" max="3" width="31.42578125" style="18" customWidth="1"/>
     <col min="4" max="4" width="26.7109375" style="17" customWidth="1"/>
     <col min="5" max="5" width="31" style="17" customWidth="1"/>
-    <col min="6" max="6" width="31" style="22" customWidth="1"/>
+    <col min="6" max="6" width="31" style="21" customWidth="1"/>
     <col min="7" max="7" width="37.28515625" style="6" customWidth="1"/>
     <col min="8" max="8" width="37.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -817,8 +825,8 @@
       <c r="E3" s="14">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>42</v>
+      <c r="F3" s="25">
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="G3" s="5">
         <f>E3-D3</f>
@@ -831,7 +839,7 @@
     </row>
     <row r="4" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>28</v>
@@ -845,8 +853,8 @@
       <c r="E4" s="16">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F4" s="21" t="s">
-        <v>42</v>
+      <c r="F4" s="24">
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" ref="G4:G32" si="0">E4-D4</f>
@@ -858,261 +866,289 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="21"/>
+      <c r="A5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="15">
+        <v>43886</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0.4375</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F5" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="G5" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H5" s="1">
         <f>SUM(G$3:G5)</f>
-        <v>0.24999999999999994</v>
+        <v>0.27083333333333326</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="21"/>
+      <c r="A6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="15">
+        <v>43886</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="F6" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="G6" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.513888888888884E-2</v>
       </c>
       <c r="H6" s="1">
         <f>SUM(G$3:G6)</f>
-        <v>0.24999999999999994</v>
+        <v>0.3159722222222221</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="21"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7" s="1">
         <f>SUM(G$3:G7)</f>
-        <v>0.24999999999999994</v>
+        <v>0.3159722222222221</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="21"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8" s="1">
         <f>SUM(G$3:G8)</f>
-        <v>0.24999999999999994</v>
+        <v>0.3159722222222221</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="21"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H9" s="1">
         <f>SUM(G$3:G9)</f>
-        <v>0.24999999999999994</v>
+        <v>0.3159722222222221</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
-      <c r="F10" s="21"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10" s="1">
         <f>SUM(G$3:G10)</f>
-        <v>0.24999999999999994</v>
+        <v>0.3159722222222221</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="21"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H11" s="1">
         <f>SUM(G$3:G11)</f>
-        <v>0.24999999999999994</v>
+        <v>0.3159722222222221</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
-      <c r="F12" s="21"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H12" s="1">
         <f>SUM(G$3:G12)</f>
-        <v>0.24999999999999994</v>
+        <v>0.3159722222222221</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
-      <c r="F13" s="21"/>
+      <c r="F13" s="20"/>
       <c r="G13" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H13" s="1">
         <f>SUM(G$3:G13)</f>
-        <v>0.24999999999999994</v>
+        <v>0.3159722222222221</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C14" s="15"/>
-      <c r="F14" s="21"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H14" s="1">
         <f>SUM(G$3:G14)</f>
-        <v>0.24999999999999994</v>
+        <v>0.3159722222222221</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C15" s="15"/>
-      <c r="F15" s="21"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H15" s="1">
         <f>SUM(G$3:G15)</f>
-        <v>0.24999999999999994</v>
+        <v>0.3159722222222221</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C16" s="15"/>
-      <c r="F16" s="21"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H16" s="1">
         <f>SUM(G$3:G16)</f>
-        <v>0.24999999999999994</v>
+        <v>0.3159722222222221</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C17" s="15"/>
-      <c r="F17" s="21"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H17" s="1">
         <f>SUM(G$3:G17)</f>
-        <v>0.24999999999999994</v>
+        <v>0.3159722222222221</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C18" s="15"/>
-      <c r="F18" s="21"/>
+      <c r="F18" s="20"/>
       <c r="G18" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H18" s="1">
         <f>SUM(G$3:G18)</f>
-        <v>0.24999999999999994</v>
+        <v>0.3159722222222221</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C19" s="15"/>
-      <c r="F19" s="21"/>
+      <c r="F19" s="20"/>
       <c r="G19" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H19" s="1">
         <f>SUM(G$3:G19)</f>
-        <v>0.24999999999999994</v>
+        <v>0.3159722222222221</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C20" s="15"/>
-      <c r="F20" s="21"/>
+      <c r="F20" s="20"/>
       <c r="G20" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H20" s="1">
         <f>SUM(G$3:G20)</f>
-        <v>0.24999999999999994</v>
+        <v>0.3159722222222221</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C21" s="15"/>
-      <c r="F21" s="21"/>
+      <c r="F21" s="20"/>
       <c r="G21" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H21" s="1">
         <f>SUM(G$3:G21)</f>
-        <v>0.24999999999999994</v>
+        <v>0.3159722222222221</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C22" s="15"/>
-      <c r="F22" s="21"/>
+      <c r="F22" s="20"/>
       <c r="G22" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>0.24999999999999994</v>
+        <v>0.3159722222222221</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C23" s="15"/>
-      <c r="F23" s="21"/>
+      <c r="F23" s="20"/>
       <c r="G23" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>0.24999999999999994</v>
+        <v>0.3159722222222221</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C24" s="15"/>
-      <c r="F24" s="21"/>
+      <c r="F24" s="20"/>
       <c r="G24" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>0.24999999999999994</v>
+        <v>0.3159722222222221</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1123,7 +1159,7 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>0.24999999999999994</v>
+        <v>0.3159722222222221</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1134,7 +1170,7 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>0.24999999999999994</v>
+        <v>0.3159722222222221</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1145,7 +1181,7 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>0.24999999999999994</v>
+        <v>0.3159722222222221</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1156,7 +1192,7 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>0.24999999999999994</v>
+        <v>0.3159722222222221</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1167,7 +1203,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>0.24999999999999994</v>
+        <v>0.3159722222222221</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1178,7 +1214,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>0.24999999999999994</v>
+        <v>0.3159722222222221</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1189,7 +1225,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>0.24999999999999994</v>
+        <v>0.3159722222222221</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1200,7 +1236,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>0.24999999999999994</v>
+        <v>0.3159722222222221</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
@@ -1285,13 +1321,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">

--- a/08 Project Management/Tidsregistrering/PM12 Tidsregistrering for Emil.xlsx
+++ b/08 Project Management/Tidsregistrering/PM12 Tidsregistrering for Emil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emiln\OneDrive\Dokumenter\HoeKulator\08 Project Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0FD55A-FC78-4BA5-BCFD-5E6DAF841FF9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6EC784-A7BF-495D-8D87-F1A77FBA39EF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
-  <si>
-    <t>Tidsregistrering af (Navn)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>Dato</t>
   </si>
@@ -170,6 +167,12 @@
   </si>
   <si>
     <t>AndroidUI design prototype</t>
+  </si>
+  <si>
+    <t>Lavet OC0101</t>
+  </si>
+  <si>
+    <t>Tidsregistrering af Emil</t>
   </si>
 </sst>
 </file>
@@ -365,16 +368,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -756,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,49 +775,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="A1" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="12">
         <v>43885</v>
@@ -825,7 +828,7 @@
       <c r="E3" s="14">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="23">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G3" s="5">
@@ -839,10 +842,10 @@
     </row>
     <row r="4" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="15">
         <v>43885</v>
@@ -853,7 +856,7 @@
       <c r="E4" s="16">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="22">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G4" s="5">
@@ -867,10 +870,10 @@
     </row>
     <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="15">
         <v>43886</v>
@@ -881,7 +884,7 @@
       <c r="E5" s="16">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="22">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G5" s="5">
@@ -895,10 +898,10 @@
     </row>
     <row r="6" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="15">
         <v>43886</v>
@@ -909,7 +912,7 @@
       <c r="E6" s="16">
         <v>0.56597222222222221</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="22">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G6" s="5">
@@ -922,17 +925,31 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="20"/>
+      <c r="A7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="15">
+        <v>43886</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="F7" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="G7" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="H7" s="1">
         <f>SUM(G$3:G7)</f>
-        <v>0.3159722222222221</v>
+        <v>0.34374999999999989</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -946,7 +963,7 @@
       </c>
       <c r="H8" s="1">
         <f>SUM(G$3:G8)</f>
-        <v>0.3159722222222221</v>
+        <v>0.34374999999999989</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -960,7 +977,7 @@
       </c>
       <c r="H9" s="1">
         <f>SUM(G$3:G9)</f>
-        <v>0.3159722222222221</v>
+        <v>0.34374999999999989</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -974,7 +991,7 @@
       </c>
       <c r="H10" s="1">
         <f>SUM(G$3:G10)</f>
-        <v>0.3159722222222221</v>
+        <v>0.34374999999999989</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -988,7 +1005,7 @@
       </c>
       <c r="H11" s="1">
         <f>SUM(G$3:G11)</f>
-        <v>0.3159722222222221</v>
+        <v>0.34374999999999989</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1002,7 +1019,7 @@
       </c>
       <c r="H12" s="1">
         <f>SUM(G$3:G12)</f>
-        <v>0.3159722222222221</v>
+        <v>0.34374999999999989</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1016,7 +1033,7 @@
       </c>
       <c r="H13" s="1">
         <f>SUM(G$3:G13)</f>
-        <v>0.3159722222222221</v>
+        <v>0.34374999999999989</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1028,7 +1045,7 @@
       </c>
       <c r="H14" s="1">
         <f>SUM(G$3:G14)</f>
-        <v>0.3159722222222221</v>
+        <v>0.34374999999999989</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1040,7 +1057,7 @@
       </c>
       <c r="H15" s="1">
         <f>SUM(G$3:G15)</f>
-        <v>0.3159722222222221</v>
+        <v>0.34374999999999989</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1052,7 +1069,7 @@
       </c>
       <c r="H16" s="1">
         <f>SUM(G$3:G16)</f>
-        <v>0.3159722222222221</v>
+        <v>0.34374999999999989</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1064,7 +1081,7 @@
       </c>
       <c r="H17" s="1">
         <f>SUM(G$3:G17)</f>
-        <v>0.3159722222222221</v>
+        <v>0.34374999999999989</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1076,7 +1093,7 @@
       </c>
       <c r="H18" s="1">
         <f>SUM(G$3:G18)</f>
-        <v>0.3159722222222221</v>
+        <v>0.34374999999999989</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1088,7 +1105,7 @@
       </c>
       <c r="H19" s="1">
         <f>SUM(G$3:G19)</f>
-        <v>0.3159722222222221</v>
+        <v>0.34374999999999989</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1100,7 +1117,7 @@
       </c>
       <c r="H20" s="1">
         <f>SUM(G$3:G20)</f>
-        <v>0.3159722222222221</v>
+        <v>0.34374999999999989</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1112,7 +1129,7 @@
       </c>
       <c r="H21" s="1">
         <f>SUM(G$3:G21)</f>
-        <v>0.3159722222222221</v>
+        <v>0.34374999999999989</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1124,7 +1141,7 @@
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>0.3159722222222221</v>
+        <v>0.34374999999999989</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1136,7 +1153,7 @@
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>0.3159722222222221</v>
+        <v>0.34374999999999989</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1148,7 +1165,7 @@
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>0.3159722222222221</v>
+        <v>0.34374999999999989</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1159,7 +1176,7 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>0.3159722222222221</v>
+        <v>0.34374999999999989</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1170,7 +1187,7 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>0.3159722222222221</v>
+        <v>0.34374999999999989</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1181,7 +1198,7 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>0.3159722222222221</v>
+        <v>0.34374999999999989</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1192,7 +1209,7 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>0.3159722222222221</v>
+        <v>0.34374999999999989</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1203,7 +1220,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>0.3159722222222221</v>
+        <v>0.34374999999999989</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1214,7 +1231,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>0.3159722222222221</v>
+        <v>0.34374999999999989</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1225,7 +1242,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>0.3159722222222221</v>
+        <v>0.34374999999999989</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1236,7 +1253,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>0.3159722222222221</v>
+        <v>0.34374999999999989</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
@@ -1321,20 +1338,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="A1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1342,7 +1359,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1350,7 +1367,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1358,7 +1375,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1366,7 +1383,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1374,7 +1391,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1382,7 +1399,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1390,7 +1407,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1398,7 +1415,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1406,7 +1423,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1414,7 +1431,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1422,7 +1439,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1430,7 +1447,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1438,7 +1455,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1446,7 +1463,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1454,7 +1471,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1462,7 +1479,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1470,7 +1487,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1478,7 +1495,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1486,7 +1503,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1494,7 +1511,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1502,7 +1519,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1510,7 +1527,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1518,7 +1535,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1526,7 +1543,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1534,7 +1551,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1542,7 +1559,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1550,7 +1567,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1558,7 +1575,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1566,7 +1583,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/08 Project Management/Tidsregistrering/PM12 Tidsregistrering for Emil.xlsx
+++ b/08 Project Management/Tidsregistrering/PM12 Tidsregistrering for Emil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emiln\OneDrive\Dokumenter\HoeKulator\08 Project Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6EC784-A7BF-495D-8D87-F1A77FBA39EF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF727280-7B57-49EF-AB6B-2A74514AFA05}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>Dato</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t>Tidsregistrering af Emil</t>
+  </si>
+  <si>
+    <t>Rettet OC0101 til dansk</t>
+  </si>
+  <si>
+    <t>Review af OC0103</t>
   </si>
 </sst>
 </file>
@@ -759,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,31 +959,59 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="20"/>
+      <c r="A8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="15">
+        <v>43886</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="F8" s="22">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="H8" s="1">
         <f>SUM(G$3:G8)</f>
-        <v>0.34374999999999989</v>
+        <v>0.35069444444444431</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="20"/>
+      <c r="A9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="15">
+        <v>43886</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F9" s="22">
+        <v>1.0416666666666666E-2</v>
+      </c>
       <c r="G9" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="H9" s="1">
         <f>SUM(G$3:G9)</f>
-        <v>0.34374999999999989</v>
+        <v>0.36458333333333315</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -991,7 +1025,7 @@
       </c>
       <c r="H10" s="1">
         <f>SUM(G$3:G10)</f>
-        <v>0.34374999999999989</v>
+        <v>0.36458333333333315</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1005,7 +1039,7 @@
       </c>
       <c r="H11" s="1">
         <f>SUM(G$3:G11)</f>
-        <v>0.34374999999999989</v>
+        <v>0.36458333333333315</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1019,7 +1053,7 @@
       </c>
       <c r="H12" s="1">
         <f>SUM(G$3:G12)</f>
-        <v>0.34374999999999989</v>
+        <v>0.36458333333333315</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1033,7 +1067,7 @@
       </c>
       <c r="H13" s="1">
         <f>SUM(G$3:G13)</f>
-        <v>0.34374999999999989</v>
+        <v>0.36458333333333315</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1045,7 +1079,7 @@
       </c>
       <c r="H14" s="1">
         <f>SUM(G$3:G14)</f>
-        <v>0.34374999999999989</v>
+        <v>0.36458333333333315</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1057,7 +1091,7 @@
       </c>
       <c r="H15" s="1">
         <f>SUM(G$3:G15)</f>
-        <v>0.34374999999999989</v>
+        <v>0.36458333333333315</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1069,7 +1103,7 @@
       </c>
       <c r="H16" s="1">
         <f>SUM(G$3:G16)</f>
-        <v>0.34374999999999989</v>
+        <v>0.36458333333333315</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1081,7 +1115,7 @@
       </c>
       <c r="H17" s="1">
         <f>SUM(G$3:G17)</f>
-        <v>0.34374999999999989</v>
+        <v>0.36458333333333315</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1093,7 +1127,7 @@
       </c>
       <c r="H18" s="1">
         <f>SUM(G$3:G18)</f>
-        <v>0.34374999999999989</v>
+        <v>0.36458333333333315</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1105,7 +1139,7 @@
       </c>
       <c r="H19" s="1">
         <f>SUM(G$3:G19)</f>
-        <v>0.34374999999999989</v>
+        <v>0.36458333333333315</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1117,7 +1151,7 @@
       </c>
       <c r="H20" s="1">
         <f>SUM(G$3:G20)</f>
-        <v>0.34374999999999989</v>
+        <v>0.36458333333333315</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1129,7 +1163,7 @@
       </c>
       <c r="H21" s="1">
         <f>SUM(G$3:G21)</f>
-        <v>0.34374999999999989</v>
+        <v>0.36458333333333315</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1141,7 +1175,7 @@
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>0.34374999999999989</v>
+        <v>0.36458333333333315</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1153,7 +1187,7 @@
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>0.34374999999999989</v>
+        <v>0.36458333333333315</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1165,7 +1199,7 @@
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>0.34374999999999989</v>
+        <v>0.36458333333333315</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1176,7 +1210,7 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>0.34374999999999989</v>
+        <v>0.36458333333333315</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1187,7 +1221,7 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>0.34374999999999989</v>
+        <v>0.36458333333333315</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1198,7 +1232,7 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>0.34374999999999989</v>
+        <v>0.36458333333333315</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1209,7 +1243,7 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>0.34374999999999989</v>
+        <v>0.36458333333333315</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1220,7 +1254,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>0.34374999999999989</v>
+        <v>0.36458333333333315</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1231,7 +1265,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>0.34374999999999989</v>
+        <v>0.36458333333333315</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1242,7 +1276,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>0.34374999999999989</v>
+        <v>0.36458333333333315</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1253,7 +1287,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>0.34374999999999989</v>
+        <v>0.36458333333333315</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">

--- a/08 Project Management/Tidsregistrering/PM12 Tidsregistrering for Emil.xlsx
+++ b/08 Project Management/Tidsregistrering/PM12 Tidsregistrering for Emil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emiln\OneDrive\Dokumenter\HoeKulator\08 Project Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF727280-7B57-49EF-AB6B-2A74514AFA05}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C617F160-184C-4881-995E-FCCE8E7E71DA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
   <si>
     <t>Dato</t>
   </si>
@@ -179,6 +179,21 @@
   </si>
   <si>
     <t>Review af OC0103</t>
+  </si>
+  <si>
+    <t>Lavet vejledning og procedure til rename og move</t>
+  </si>
+  <si>
+    <t>Færdiggør vejledning og procedure til rename og move</t>
+  </si>
+  <si>
+    <t>Lav AD04</t>
+  </si>
+  <si>
+    <t>Review DOM05</t>
+  </si>
+  <si>
+    <t>Rettet og færdiggjort ENV08 efter review</t>
   </si>
 </sst>
 </file>
@@ -766,7 +781,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,71 +1030,143 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="20"/>
+      <c r="A10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="15">
+        <v>43887</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0.4375</v>
+      </c>
+      <c r="F10" s="22">
+        <v>6.25E-2</v>
+      </c>
       <c r="G10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H10" s="1">
         <f>SUM(G$3:G10)</f>
-        <v>0.36458333333333315</v>
+        <v>0.40624999999999983</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="20"/>
+      <c r="A11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="15">
+        <v>43887</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0.5625</v>
+      </c>
+      <c r="F11" s="22">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="G11" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="H11" s="1">
         <f>SUM(G$3:G11)</f>
-        <v>0.36458333333333315</v>
+        <v>0.41666666666666646</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="20"/>
+      <c r="A12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="15">
+        <v>43887</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0.5625</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F12" s="22">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="G12" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H12" s="1">
         <f>SUM(G$3:G12)</f>
-        <v>0.36458333333333315</v>
+        <v>0.43749999999999983</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="20"/>
+      <c r="A13" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="15">
+        <v>43887</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="F13" s="22">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="G13" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.4722222222222099E-3</v>
       </c>
       <c r="H13" s="1">
         <f>SUM(G$3:G13)</f>
-        <v>0.36458333333333315</v>
+        <v>0.44097222222222204</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C14" s="15"/>
-      <c r="F14" s="20"/>
+      <c r="A14" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="15">
+        <v>43887</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="E14" s="17">
+        <v>0.625</v>
+      </c>
+      <c r="F14" s="22">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="G14" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.3888888888888951E-2</v>
       </c>
       <c r="H14" s="1">
         <f>SUM(G$3:G14)</f>
-        <v>0.36458333333333315</v>
+        <v>0.45486111111111099</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1091,7 +1178,7 @@
       </c>
       <c r="H15" s="1">
         <f>SUM(G$3:G15)</f>
-        <v>0.36458333333333315</v>
+        <v>0.45486111111111099</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1103,7 +1190,7 @@
       </c>
       <c r="H16" s="1">
         <f>SUM(G$3:G16)</f>
-        <v>0.36458333333333315</v>
+        <v>0.45486111111111099</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1115,7 +1202,7 @@
       </c>
       <c r="H17" s="1">
         <f>SUM(G$3:G17)</f>
-        <v>0.36458333333333315</v>
+        <v>0.45486111111111099</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1127,7 +1214,7 @@
       </c>
       <c r="H18" s="1">
         <f>SUM(G$3:G18)</f>
-        <v>0.36458333333333315</v>
+        <v>0.45486111111111099</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1139,7 +1226,7 @@
       </c>
       <c r="H19" s="1">
         <f>SUM(G$3:G19)</f>
-        <v>0.36458333333333315</v>
+        <v>0.45486111111111099</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1151,7 +1238,7 @@
       </c>
       <c r="H20" s="1">
         <f>SUM(G$3:G20)</f>
-        <v>0.36458333333333315</v>
+        <v>0.45486111111111099</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1163,7 +1250,7 @@
       </c>
       <c r="H21" s="1">
         <f>SUM(G$3:G21)</f>
-        <v>0.36458333333333315</v>
+        <v>0.45486111111111099</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1175,7 +1262,7 @@
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>0.36458333333333315</v>
+        <v>0.45486111111111099</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1187,7 +1274,7 @@
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>0.36458333333333315</v>
+        <v>0.45486111111111099</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1199,7 +1286,7 @@
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>0.36458333333333315</v>
+        <v>0.45486111111111099</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1210,7 +1297,7 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>0.36458333333333315</v>
+        <v>0.45486111111111099</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1221,7 +1308,7 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>0.36458333333333315</v>
+        <v>0.45486111111111099</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1232,7 +1319,7 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>0.36458333333333315</v>
+        <v>0.45486111111111099</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1243,7 +1330,7 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>0.36458333333333315</v>
+        <v>0.45486111111111099</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1254,7 +1341,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>0.36458333333333315</v>
+        <v>0.45486111111111099</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1265,7 +1352,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>0.36458333333333315</v>
+        <v>0.45486111111111099</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1276,7 +1363,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>0.36458333333333315</v>
+        <v>0.45486111111111099</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1287,7 +1374,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>0.36458333333333315</v>
+        <v>0.45486111111111099</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">

--- a/08 Project Management/Tidsregistrering/PM12 Tidsregistrering for Emil.xlsx
+++ b/08 Project Management/Tidsregistrering/PM12 Tidsregistrering for Emil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emiln\OneDrive\Dokumenter\HoeKulator\08 Project Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C617F160-184C-4881-995E-FCCE8E7E71DA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D99AB2-66F0-45E9-976D-2DA270DEA18A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>Dato</t>
   </si>
@@ -194,6 +194,12 @@
   </si>
   <si>
     <t>Rettet og færdiggjort ENV08 efter review</t>
+  </si>
+  <si>
+    <t>Kundemøde UC03, DOM03, ATD03a</t>
+  </si>
+  <si>
+    <t>Kundemøde AD04, DD04, ATD04b</t>
   </si>
 </sst>
 </file>
@@ -445,6 +451,171 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2506980" y="2644140"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="da-DK" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Tekstfelt 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48C2CF11-94CF-4864-80FF-4EBBD5F4D29E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9340762" y="2605436"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="da-DK" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Tekstfelt 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBFB6CA5-B7EB-4DB8-AF24-D418C0CD0535}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9340762" y="2605436"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="da-DK" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Tekstfelt 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B574B781-36A2-42EA-8C21-54587D64BAC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9340762" y="2850634"/>
           <a:ext cx="184731" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -780,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,138 +1230,170 @@
     </row>
     <row r="11" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C11" s="15">
         <v>43887</v>
       </c>
       <c r="D11" s="16">
-        <v>0.55208333333333337</v>
+        <v>0.4375</v>
       </c>
       <c r="E11" s="16">
-        <v>0.5625</v>
+        <v>0.5</v>
       </c>
       <c r="F11" s="22">
-        <v>6.9444444444444441E-3</v>
+        <v>6.25E-2</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="0"/>
-        <v>1.041666666666663E-2</v>
+        <f>E11-D11</f>
+        <v>6.25E-2</v>
       </c>
       <c r="H11" s="1">
         <f>SUM(G$3:G11)</f>
-        <v>0.41666666666666646</v>
+        <v>0.46874999999999983</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" s="15">
         <v>43887</v>
       </c>
       <c r="D12" s="16">
-        <v>0.5625</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="E12" s="16">
-        <v>0.58333333333333337</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="F12" s="22">
-        <v>6.9444444444444441E-3</v>
+        <v>3.125E-2</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" si="0"/>
-        <v>2.083333333333337E-2</v>
+        <f>E12-D12</f>
+        <v>3.125E-2</v>
       </c>
       <c r="H12" s="1">
         <f>SUM(G$3:G12)</f>
-        <v>0.43749999999999983</v>
+        <v>0.49999999999999983</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" s="15">
         <v>43887</v>
       </c>
       <c r="D13" s="16">
-        <v>0.58333333333333337</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="E13" s="16">
-        <v>0.58680555555555558</v>
+        <v>0.5625</v>
       </c>
       <c r="F13" s="22">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" si="0"/>
-        <v>3.4722222222222099E-3</v>
+        <f>E13-D13</f>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="H13" s="1">
         <f>SUM(G$3:G13)</f>
-        <v>0.44097222222222204</v>
+        <v>0.51041666666666652</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C14" s="15">
         <v>43887</v>
       </c>
-      <c r="D14" s="17">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="E14" s="17">
-        <v>0.625</v>
+      <c r="D14" s="16">
+        <v>0.5625</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0.58333333333333337</v>
       </c>
       <c r="F14" s="22">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="G14" s="5">
-        <f t="shared" si="0"/>
-        <v>1.3888888888888951E-2</v>
+        <f>E14-D14</f>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H14" s="1">
         <f>SUM(G$3:G14)</f>
-        <v>0.45486111111111099</v>
+        <v>0.53124999999999989</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C15" s="15"/>
-      <c r="F15" s="20"/>
+      <c r="A15" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="15">
+        <v>43887</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="F15" s="22">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="G15" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>E15-D15</f>
+        <v>3.4722222222222099E-3</v>
       </c>
       <c r="H15" s="1">
         <f>SUM(G$3:G15)</f>
-        <v>0.45486111111111099</v>
+        <v>0.5347222222222221</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C16" s="15"/>
-      <c r="F16" s="20"/>
+      <c r="A16" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="15">
+        <v>43887</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0.625</v>
+      </c>
+      <c r="F16" s="22">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="G16" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>E16-D16</f>
+        <v>1.3888888888888951E-2</v>
       </c>
       <c r="H16" s="1">
         <f>SUM(G$3:G16)</f>
-        <v>0.45486111111111099</v>
+        <v>0.54861111111111105</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1202,7 +1405,7 @@
       </c>
       <c r="H17" s="1">
         <f>SUM(G$3:G17)</f>
-        <v>0.45486111111111099</v>
+        <v>0.54861111111111105</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1214,7 +1417,7 @@
       </c>
       <c r="H18" s="1">
         <f>SUM(G$3:G18)</f>
-        <v>0.45486111111111099</v>
+        <v>0.54861111111111105</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1226,7 +1429,7 @@
       </c>
       <c r="H19" s="1">
         <f>SUM(G$3:G19)</f>
-        <v>0.45486111111111099</v>
+        <v>0.54861111111111105</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1238,7 +1441,7 @@
       </c>
       <c r="H20" s="1">
         <f>SUM(G$3:G20)</f>
-        <v>0.45486111111111099</v>
+        <v>0.54861111111111105</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1250,7 +1453,7 @@
       </c>
       <c r="H21" s="1">
         <f>SUM(G$3:G21)</f>
-        <v>0.45486111111111099</v>
+        <v>0.54861111111111105</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1262,7 +1465,7 @@
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>0.45486111111111099</v>
+        <v>0.54861111111111105</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1274,7 +1477,7 @@
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>0.45486111111111099</v>
+        <v>0.54861111111111105</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1286,7 +1489,7 @@
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>0.45486111111111099</v>
+        <v>0.54861111111111105</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1297,7 +1500,7 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>0.45486111111111099</v>
+        <v>0.54861111111111105</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1308,7 +1511,7 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>0.45486111111111099</v>
+        <v>0.54861111111111105</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1319,7 +1522,7 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>0.45486111111111099</v>
+        <v>0.54861111111111105</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1330,7 +1533,7 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>0.45486111111111099</v>
+        <v>0.54861111111111105</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1341,7 +1544,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>0.45486111111111099</v>
+        <v>0.54861111111111105</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1352,7 +1555,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>0.45486111111111099</v>
+        <v>0.54861111111111105</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1363,7 +1566,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>0.45486111111111099</v>
+        <v>0.54861111111111105</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1374,7 +1577,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>0.45486111111111099</v>
+        <v>0.54861111111111105</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">

--- a/08 Project Management/Tidsregistrering/PM12 Tidsregistrering for Emil.xlsx
+++ b/08 Project Management/Tidsregistrering/PM12 Tidsregistrering for Emil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emiln\OneDrive\Dokumenter\HoeKulator\08 Project Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D99AB2-66F0-45E9-976D-2DA270DEA18A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26576E53-F5FC-4A31-87C3-5FA687C55B4C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
   <si>
     <t>Dato</t>
   </si>
@@ -200,6 +200,15 @@
   </si>
   <si>
     <t>Kundemøde AD04, DD04, ATD04b</t>
+  </si>
+  <si>
+    <t>Review ENV09 tidsregistrering guide</t>
+  </si>
+  <si>
+    <t>Lav OC0804</t>
+  </si>
+  <si>
+    <t>Lav OC0803</t>
   </si>
 </sst>
 </file>
@@ -350,7 +359,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -375,10 +384,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -952,31 +957,31 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="53.85546875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="31" style="17" customWidth="1"/>
-    <col min="6" max="6" width="31" style="21" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="31" style="15" customWidth="1"/>
+    <col min="6" max="6" width="31" style="19" customWidth="1"/>
     <col min="7" max="7" width="37.28515625" style="6" customWidth="1"/>
     <col min="8" max="8" width="37.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -994,7 +999,7 @@
       <c r="E2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="17" t="s">
         <v>34</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -1011,16 +1016,16 @@
       <c r="B3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="13">
         <v>43885</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="14">
         <v>0.39583333333333331</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="12">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="21">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G3" s="5">
@@ -1039,16 +1044,16 @@
       <c r="B4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="13">
         <v>43885</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="14">
         <v>0.5625</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="14">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="20">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G4" s="5">
@@ -1067,16 +1072,16 @@
       <c r="B5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="13">
         <v>43886</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="14">
         <v>0.4375</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="20">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G5" s="5">
@@ -1095,16 +1100,16 @@
       <c r="B6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="13">
         <v>43886</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="14">
         <v>0.52083333333333337</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="14">
         <v>0.56597222222222221</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="20">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G6" s="5">
@@ -1123,16 +1128,16 @@
       <c r="B7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="13">
         <v>43886</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="14">
         <v>0.56944444444444442</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="14">
         <v>0.59722222222222221</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="20">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G7" s="5">
@@ -1151,16 +1156,16 @@
       <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <v>43886</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="14">
         <v>0.64583333333333337</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>0.65277777777777779</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="20">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="G8" s="5">
@@ -1179,16 +1184,16 @@
       <c r="B9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="13">
         <v>43886</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="14">
         <v>0.65277777777777779</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="14">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="20">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="G9" s="5">
@@ -1207,16 +1212,16 @@
       <c r="B10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="13">
         <v>43887</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="14">
         <v>0.39583333333333331</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="14">
         <v>0.4375</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="20">
         <v>6.25E-2</v>
       </c>
       <c r="G10" s="5">
@@ -1235,20 +1240,20 @@
       <c r="B11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="13">
         <v>43887</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="14">
         <v>0.4375</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="14">
         <v>0.5</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="20">
         <v>6.25E-2</v>
       </c>
       <c r="G11" s="5">
-        <f>E11-D11</f>
+        <f t="shared" ref="G11:G16" si="1">E11-D11</f>
         <v>6.25E-2</v>
       </c>
       <c r="H11" s="1">
@@ -1263,20 +1268,20 @@
       <c r="B12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="13">
         <v>43887</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="14">
         <v>0.52083333333333337</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="14">
         <v>0.55208333333333337</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="20">
         <v>3.125E-2</v>
       </c>
       <c r="G12" s="5">
-        <f>E12-D12</f>
+        <f t="shared" si="1"/>
         <v>3.125E-2</v>
       </c>
       <c r="H12" s="1">
@@ -1291,20 +1296,20 @@
       <c r="B13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="13">
         <v>43887</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="14">
         <v>0.55208333333333337</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="14">
         <v>0.5625</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="20">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="G13" s="5">
-        <f>E13-D13</f>
+        <f t="shared" si="1"/>
         <v>1.041666666666663E-2</v>
       </c>
       <c r="H13" s="1">
@@ -1319,20 +1324,20 @@
       <c r="B14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="13">
         <v>43887</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="14">
         <v>0.5625</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="14">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="20">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="G14" s="5">
-        <f>E14-D14</f>
+        <f t="shared" si="1"/>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="H14" s="1">
@@ -1347,20 +1352,20 @@
       <c r="B15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="13">
         <v>43887</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="14">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="14">
         <v>0.58680555555555558</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="20">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="G15" s="5">
-        <f>E15-D15</f>
+        <f t="shared" si="1"/>
         <v>3.4722222222222099E-3</v>
       </c>
       <c r="H15" s="1">
@@ -1375,20 +1380,20 @@
       <c r="B16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="13">
         <v>43887</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="15">
         <v>0.61111111111111105</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="15">
         <v>0.625</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="20">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="G16" s="5">
-        <f>E16-D16</f>
+        <f t="shared" si="1"/>
         <v>1.3888888888888951E-2</v>
       </c>
       <c r="H16" s="1">
@@ -1396,234 +1401,282 @@
         <v>0.54861111111111105</v>
       </c>
     </row>
-    <row r="17" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C17" s="15"/>
-      <c r="F17" s="20"/>
+    <row r="17" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="13">
+        <v>43888</v>
+      </c>
+      <c r="D17" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F17" s="20">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="G17" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H17" s="1">
         <f>SUM(G$3:G17)</f>
-        <v>0.54861111111111105</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C18" s="15"/>
-      <c r="F18" s="20"/>
+        <v>0.55902777777777768</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="13">
+        <v>43888</v>
+      </c>
+      <c r="D18" s="15">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0.40625</v>
+      </c>
+      <c r="F18" s="20">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="G18" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H18" s="1">
         <f>SUM(G$3:G18)</f>
-        <v>0.54861111111111105</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C19" s="15"/>
-      <c r="F19" s="20"/>
+        <v>0.56944444444444442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="13">
+        <v>43888</v>
+      </c>
+      <c r="D19" s="15">
+        <v>0.40625</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F19" s="20">
+        <v>1.0416666666666666E-2</v>
+      </c>
       <c r="G19" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H19" s="1">
         <f>SUM(G$3:G19)</f>
-        <v>0.54861111111111105</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C20" s="15"/>
-      <c r="F20" s="20"/>
+        <v>0.57986111111111116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="C20" s="13"/>
+      <c r="F20" s="18"/>
       <c r="G20" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H20" s="1">
         <f>SUM(G$3:G20)</f>
-        <v>0.54861111111111105</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C21" s="15"/>
-      <c r="F21" s="20"/>
+        <v>0.57986111111111116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="C21" s="13"/>
+      <c r="F21" s="18"/>
       <c r="G21" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H21" s="1">
         <f>SUM(G$3:G21)</f>
-        <v>0.54861111111111105</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C22" s="15"/>
-      <c r="F22" s="20"/>
+        <v>0.57986111111111116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="C22" s="13"/>
+      <c r="F22" s="18"/>
       <c r="G22" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>0.54861111111111105</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C23" s="15"/>
-      <c r="F23" s="20"/>
+        <v>0.57986111111111116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="C23" s="13"/>
+      <c r="F23" s="18"/>
       <c r="G23" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>0.54861111111111105</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C24" s="15"/>
-      <c r="F24" s="20"/>
+        <v>0.57986111111111116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="C24" s="13"/>
+      <c r="F24" s="18"/>
       <c r="G24" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>0.54861111111111105</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C25" s="15"/>
+        <v>0.57986111111111116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="C25" s="13"/>
       <c r="G25" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>0.54861111111111105</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C26" s="15"/>
+        <v>0.57986111111111116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="C26" s="13"/>
       <c r="G26" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>0.54861111111111105</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C27" s="15"/>
+        <v>0.57986111111111116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="C27" s="13"/>
       <c r="G27" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>0.54861111111111105</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C28" s="15"/>
+        <v>0.57986111111111116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="C28" s="13"/>
       <c r="G28" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>0.54861111111111105</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C29" s="15"/>
+        <v>0.57986111111111116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="C29" s="13"/>
       <c r="G29" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>0.54861111111111105</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C30" s="15"/>
+        <v>0.57986111111111116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="C30" s="13"/>
       <c r="G30" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>0.54861111111111105</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C31" s="15"/>
+        <v>0.57986111111111116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="C31" s="13"/>
       <c r="G31" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>0.54861111111111105</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C32" s="15"/>
+        <v>0.57986111111111116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="C32" s="13"/>
       <c r="G32" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>0.54861111111111105</v>
+        <v>0.57986111111111116</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="15"/>
+      <c r="C33" s="13"/>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="15"/>
+      <c r="C34" s="13"/>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="15"/>
+      <c r="C35" s="13"/>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="15"/>
+      <c r="C36" s="13"/>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="15"/>
+      <c r="C37" s="13"/>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="15"/>
+      <c r="C38" s="13"/>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="15"/>
+      <c r="C39" s="13"/>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="15"/>
+      <c r="C40" s="13"/>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="15"/>
+      <c r="C41" s="13"/>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="15"/>
+      <c r="C42" s="13"/>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C43" s="15"/>
+      <c r="C43" s="13"/>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C44" s="15"/>
+      <c r="C44" s="13"/>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C45" s="15"/>
+      <c r="C45" s="13"/>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C46" s="15"/>
+      <c r="C46" s="13"/>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C47" s="15"/>
+      <c r="C47" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1662,13 +1715,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">

--- a/08 Project Management/Tidsregistrering/PM12 Tidsregistrering for Emil.xlsx
+++ b/08 Project Management/Tidsregistrering/PM12 Tidsregistrering for Emil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emiln\OneDrive\Dokumenter\HoeKulator\08 Project Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26576E53-F5FC-4A31-87C3-5FA687C55B4C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D845FC3-A711-4206-A215-ADCB161604F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
   <si>
     <t>Dato</t>
   </si>
@@ -209,6 +209,15 @@
   </si>
   <si>
     <t>Lav OC0803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ret OC0804 efter review </t>
+  </si>
+  <si>
+    <t>Fælles gennemgang af CDC01 og SD01</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
@@ -957,7 +966,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,27 +1495,59 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C20" s="13"/>
-      <c r="F20" s="18"/>
+      <c r="A20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="13">
+        <v>43888</v>
+      </c>
+      <c r="D20" s="15">
+        <v>0.4375</v>
+      </c>
+      <c r="E20" s="15">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="F20" s="20">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="G20" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.3888888888888895E-2</v>
       </c>
       <c r="H20" s="1">
         <f>SUM(G$3:G20)</f>
-        <v>0.57986111111111116</v>
+        <v>0.59375</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C21" s="13"/>
-      <c r="F21" s="18"/>
+      <c r="A21" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="13">
+        <v>43888</v>
+      </c>
+      <c r="D21" s="15">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="E21" s="15">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>60</v>
+      </c>
       <c r="G21" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.15972222222222221</v>
       </c>
       <c r="H21" s="1">
         <f>SUM(G$3:G21)</f>
-        <v>0.57986111111111116</v>
+        <v>0.75347222222222221</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1518,7 +1559,7 @@
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>0.57986111111111116</v>
+        <v>0.75347222222222221</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1530,7 +1571,7 @@
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>0.57986111111111116</v>
+        <v>0.75347222222222221</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1542,7 +1583,7 @@
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>0.57986111111111116</v>
+        <v>0.75347222222222221</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1553,7 +1594,7 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>0.57986111111111116</v>
+        <v>0.75347222222222221</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1564,7 +1605,7 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>0.57986111111111116</v>
+        <v>0.75347222222222221</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1575,7 +1616,7 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>0.57986111111111116</v>
+        <v>0.75347222222222221</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1586,7 +1627,7 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>0.57986111111111116</v>
+        <v>0.75347222222222221</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1597,7 +1638,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>0.57986111111111116</v>
+        <v>0.75347222222222221</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1608,7 +1649,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>0.57986111111111116</v>
+        <v>0.75347222222222221</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1619,7 +1660,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>0.57986111111111116</v>
+        <v>0.75347222222222221</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1630,7 +1671,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>0.57986111111111116</v>
+        <v>0.75347222222222221</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">

--- a/08 Project Management/Tidsregistrering/PM12 Tidsregistrering for Emil.xlsx
+++ b/08 Project Management/Tidsregistrering/PM12 Tidsregistrering for Emil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emiln\OneDrive\Dokumenter\HoeKulator\08 Project Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D845FC3-A711-4206-A215-ADCB161604F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E6E14F-862F-46CB-B5A0-04A0727DA6FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
   <si>
     <t>Dato</t>
   </si>
@@ -218,6 +218,18 @@
   </si>
   <si>
     <t>???</t>
+  </si>
+  <si>
+    <t>Krydstjek 04</t>
+  </si>
+  <si>
+    <t>Review ATD07b</t>
+  </si>
+  <si>
+    <t>Review DD07</t>
+  </si>
+  <si>
+    <t>Ret ENV08 move-rename-vejledning</t>
   </si>
 </sst>
 </file>
@@ -965,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1551,61 +1563,143 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C22" s="13"/>
-      <c r="F22" s="18"/>
+      <c r="A22" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="13">
+        <v>43889</v>
+      </c>
+      <c r="D22" s="15">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E22" s="15">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="F22" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="G22" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.819444444444442E-2</v>
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>0.75347222222222221</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C23" s="13"/>
-      <c r="F23" s="18"/>
+      <c r="A23" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="13">
+        <v>43889</v>
+      </c>
+      <c r="D23" s="15">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E23" s="15">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F23" s="20">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="G23" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.3888888888888951E-2</v>
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>0.75347222222222221</v>
+        <v>0.80555555555555558</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C24" s="13"/>
-      <c r="F24" s="18"/>
+      <c r="A24" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="13">
+        <v>43889</v>
+      </c>
+      <c r="D24" s="15">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E24" s="15">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="F24" s="20">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="G24" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.4722222222222654E-3</v>
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>0.75347222222222221</v>
+        <v>0.8090277777777779</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C25" s="13"/>
+      <c r="A25" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="13">
+        <v>43889</v>
+      </c>
+      <c r="D25" s="15">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E25" s="15">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="F25" s="21">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="G25" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>0.75347222222222221</v>
+        <v>0.82291666666666674</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C26" s="13"/>
+      <c r="A26" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="13">
+        <v>43889</v>
+      </c>
+      <c r="D26" s="15">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="E26" s="15">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F26" s="21">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="G26" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>0.75347222222222221</v>
+        <v>0.82986111111111116</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1616,7 +1710,7 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>0.75347222222222221</v>
+        <v>0.82986111111111116</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1627,7 +1721,7 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>0.75347222222222221</v>
+        <v>0.82986111111111116</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1638,7 +1732,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>0.75347222222222221</v>
+        <v>0.82986111111111116</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1649,7 +1743,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>0.75347222222222221</v>
+        <v>0.82986111111111116</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1660,7 +1754,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>0.75347222222222221</v>
+        <v>0.82986111111111116</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1671,7 +1765,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>0.75347222222222221</v>
+        <v>0.82986111111111116</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">

--- a/08 Project Management/Tidsregistrering/PM12 Tidsregistrering for Emil.xlsx
+++ b/08 Project Management/Tidsregistrering/PM12 Tidsregistrering for Emil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emiln\OneDrive\Dokumenter\HoeKulator\08 Project Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E6E14F-862F-46CB-B5A0-04A0727DA6FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86097C29-FF9F-4F3D-88CD-5885FC0D6995}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
   <si>
     <t>Dato</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>Ret ENV08 move-rename-vejledning</t>
+  </si>
+  <si>
+    <t>Lav FXML UI til UC06 kontante kapacitetsomkostninger</t>
   </si>
 </sst>
 </file>
@@ -977,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1703,14 +1706,31 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C27" s="13"/>
+      <c r="A27" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="13">
+        <v>43896</v>
+      </c>
+      <c r="D27" s="15">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E27" s="15">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="F27" s="21">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="G27" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.13194444444444436</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>0.82986111111111116</v>
+        <v>0.96180555555555558</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1721,7 +1741,7 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>0.82986111111111116</v>
+        <v>0.96180555555555558</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1732,7 +1752,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>0.82986111111111116</v>
+        <v>0.96180555555555558</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1743,7 +1763,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>0.82986111111111116</v>
+        <v>0.96180555555555558</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1754,7 +1774,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>0.82986111111111116</v>
+        <v>0.96180555555555558</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1765,7 +1785,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>0.82986111111111116</v>
+        <v>0.96180555555555558</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">

--- a/08 Project Management/Tidsregistrering/PM12 Tidsregistrering for Emil.xlsx
+++ b/08 Project Management/Tidsregistrering/PM12 Tidsregistrering for Emil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emiln\OneDrive\Dokumenter\HoeKulator\08 Project Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86097C29-FF9F-4F3D-88CD-5885FC0D6995}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A0BFEF-9D7E-4C5E-ACC5-D832186774DE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
   <si>
     <t>Dato</t>
   </si>
@@ -233,6 +233,15 @@
   </si>
   <si>
     <t>Lav FXML UI til UC06 kontante kapacitetsomkostninger</t>
+  </si>
+  <si>
+    <t>Review af systemtest OC0804</t>
+  </si>
+  <si>
+    <t>Lav systemtest til OC0803</t>
+  </si>
+  <si>
+    <t>Ret OC0803</t>
   </si>
 </sst>
 </file>
@@ -383,7 +392,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -428,6 +437,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -980,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,16 +1008,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -1734,103 +1746,154 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C28" s="13"/>
+      <c r="A28" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="13">
+        <v>43899</v>
+      </c>
+      <c r="D28" s="15">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F28" s="21">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="G28" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>0.96180555555555558</v>
+        <v>0.96875</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C29" s="13"/>
+      <c r="A29" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="13">
+        <v>43899</v>
+      </c>
+      <c r="D29" s="15">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="E29" s="15">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="F29" s="21">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="G29" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>0.96180555555555558</v>
+        <v>1.0104166666666665</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C30" s="13"/>
+      <c r="A30" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="13">
+        <v>43899</v>
+      </c>
+      <c r="D30" s="15">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E30" s="15">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="F30" s="21">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="G30" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.0277777777777901E-2</v>
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>0.96180555555555558</v>
+        <v>1.1006944444444444</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C31" s="13"/>
+      <c r="F31" s="22"/>
       <c r="G31" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>0.96180555555555558</v>
+        <v>1.1006944444444444</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C32" s="13"/>
+      <c r="F32" s="22"/>
       <c r="G32" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>0.96180555555555558</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1.1006944444444444</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33" s="13"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="F33" s="22"/>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C34" s="13"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C35" s="13"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C37" s="13"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C38" s="13"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C39" s="13"/>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C40" s="13"/>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C41" s="13"/>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C42" s="13"/>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C43" s="13"/>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C44" s="13"/>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C45" s="13"/>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C46" s="13"/>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C47" s="13"/>
     </row>
   </sheetData>
@@ -1870,13 +1933,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
